--- a/biology/Botanique/Suillellus_mendax/Suillellus_mendax.xlsx
+++ b/biology/Botanique/Suillellus_mendax/Suillellus_mendax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet menteur
-Suillellus mendax, le Bolet menteur, anciennement Boletus mendax, est une espèce de champignons (Fungi) basidiomycètes du genre Suillellus dans la famille des Boletaceae. Décrite en 2013[1], cette espèce est morphologiquement extrêmement similaire à Suillellus luridus. Il est caractérisé par son pied typiquement orné d'un réseau sur sa partie supérieure et de ponctuations sur sa partie inférieure, mais aussi par sa grande variabilité d'apparence.   
+Suillellus mendax, le Bolet menteur, anciennement Boletus mendax, est une espèce de champignons (Fungi) basidiomycètes du genre Suillellus dans la famille des Boletaceae. Décrite en 2013, cette espèce est morphologiquement extrêmement similaire à Suillellus luridus. Il est caractérisé par son pied typiquement orné d'un réseau sur sa partie supérieure et de ponctuations sur sa partie inférieure, mais aussi par sa grande variabilité d'apparence.   
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus mendax (Simonini &amp; Vizzini) Vizzini, Simonini &amp; Gelardi, 2014[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus mendax Simonini &amp; Vizzini, 2014[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus mendax (Simonini &amp; Vizzini) Vizzini, Simonini &amp; Gelardi, 2014. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus mendax Simonini &amp; Vizzini, 2014.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du latin mendax : trompeur, menteur[3]. Faisant référence à son aspect extrêmement changeant et trompeur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du latin mendax : trompeur, menteur. Faisant référence à son aspect extrêmement changeant et trompeur.
 </t>
         </is>
       </c>
@@ -575,18 +591,55 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons pour la plupart mycorhiziens dont l'hyménophore est constitué de tubes terminés par des pores. Il se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques et microscopiques de Suillellus mendax, le Bolet menteur, sont les suivantes :
-Son chapeau est velouté, de couleur rouge-rose cramoisi à brun rougeâtre[4]. 
-Son hyménophore présente des pores rouge vif dans la jeunesse puis orange, bleuissants[4]. 
-Son stipe est de couleur orangé rouge, jaune au sommet, avec un réseau mal défini normalement limité au sommet, et des ponctuations dans la moitié inférieure[4]. 
-La chair est jaune, bleuissante à la coupe, de couleur rouge betterave à la base[4]. 
-Tout comme Suillellus luridus, S. mendax peut présenter, ou pas, ce qu'on appelle la "ligne de Bataille"[3].
+Son chapeau est velouté, de couleur rouge-rose cramoisi à brun rougeâtre. 
+Son hyménophore présente des pores rouge vif dans la jeunesse puis orange, bleuissants. 
+Son stipe est de couleur orangé rouge, jaune au sommet, avec un réseau mal défini normalement limité au sommet, et des ponctuations dans la moitié inférieure. 
+La chair est jaune, bleuissante à la coupe, de couleur rouge betterave à la base. 
+Tout comme Suillellus luridus, S. mendax peut présenter, ou pas, ce qu'on appelle la "ligne de Bataille".
 Ce bolet, en présence d’exemplaires typiques, peut se résumer comme étant un mixte de trois espèces : chapeau rougeâtre et stipe plutôt rouge avec un réseau souvent mal défini limité au sommet (aspect Suillellus luridus), base du stipe (parfois) rouge betterave (aspect Suillellus queletii), bas du stipe ponctué (aspect Neoboletus erythropus). Tout n’est néanmoins pas si simple, cette espèce semble par exemple pouvoir occasionnellement présenter un réseau jusqu’en bas du stipe.
 S. mendax présente une variabilité d'aspect si importante que sa forme peut aller jusqu'à correspondre à l'apparence typique de S. luridus (cela est aussi inversement vrai pour S. luridus). Ce qui rend quasiment impossible toute identification certaine de cette espèce en n'utilisant que des critères d'identification macroscopiques.
-Caractéristiques microscopiques
-Ses spores mesurent 13-15 x 5-5,5 µm[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillellus_mendax</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillellus_mendax</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 13-15 x 5-5,5 µm.
 </t>
         </is>
       </c>
